--- a/tests/Muhamad/Appointment Setting.xlsx
+++ b/tests/Muhamad/Appointment Setting.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Muhamad Igbaria\labRep\tests\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Muhamad Igbaria\labRep\tests\Muhamad\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -57,14 +57,6 @@
   </si>
   <si>
     <t>Acceptance Testing for Use Case: Appointment Setting</t>
-  </si>
-  <si>
-    <t>Appointment Setting
-&lt;&lt;included&gt;:
-checking HMO approval
-Choose speciality
-Choose Doctor
-Choose Time</t>
   </si>
   <si>
     <t>Dispatcher</t>
@@ -165,6 +157,13 @@
     <t>System ask :" Do you want to cancel appointment setting procces? And discard changes?" Message.
 If chhose Yes : System exit and discard all changes .
 If choose No: Stay in the current window</t>
+  </si>
+  <si>
+    <t>Appointment Setting
+&lt;&lt;included&gt;:
+Choose speciality
+Choose Doctor
+Choose Time</t>
   </si>
 </sst>
 </file>
@@ -391,33 +390,30 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -425,6 +421,9 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -709,34 +708,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17" style="2" customWidth="1"/>
     <col min="2" max="2" width="44.875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="35.375" style="13" customWidth="1"/>
-    <col min="4" max="4" width="30.375" style="13" customWidth="1"/>
-    <col min="5" max="5" width="9.875" style="13" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9" style="13"/>
-    <col min="7" max="7" width="45.5" style="13" customWidth="1"/>
+    <col min="3" max="3" width="35.375" style="12" customWidth="1"/>
+    <col min="4" max="4" width="30.375" style="12" customWidth="1"/>
+    <col min="5" max="5" width="9.875" style="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9" style="12"/>
+    <col min="7" max="7" width="45.5" style="12" customWidth="1"/>
     <col min="8" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="10"/>
-    </row>
-    <row r="2" spans="1:7" ht="90" x14ac:dyDescent="0.2">
+      <c r="B1" s="17"/>
+    </row>
+    <row r="2" spans="1:7" ht="75" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.2">
@@ -744,7 +743,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.2">
@@ -757,7 +756,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="15" x14ac:dyDescent="0.2">
@@ -767,68 +766,68 @@
     </row>
     <row r="8" spans="1:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="C8" s="13" t="s">
         <v>15</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>16</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
     </row>
     <row r="9" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A9" s="11">
+      <c r="A9" s="10">
         <v>123456789</v>
       </c>
       <c r="B9" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="13" t="s">
         <v>17</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>18</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
     </row>
     <row r="10" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A10" s="11">
+      <c r="A10" s="10">
         <v>987654321</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>19</v>
+        <v>16</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>18</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
     </row>
     <row r="11" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A11" s="11"/>
-      <c r="B11" s="12"/>
-      <c r="C11" s="14"/>
+      <c r="A11" s="10"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="13"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
     </row>
     <row r="12" spans="1:7" ht="57.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" s="20"/>
-      <c r="C12" s="21"/>
+      <c r="A12" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="19"/>
+      <c r="C12" s="20"/>
     </row>
     <row r="14" spans="1:7" ht="18" x14ac:dyDescent="0.2">
-      <c r="A14" s="18" t="s">
+      <c r="A14" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="18"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
+      <c r="B14" s="21"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
     </row>
     <row r="15" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
@@ -837,52 +836,52 @@
       <c r="B15" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="16" t="s">
+      <c r="C15" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="16" t="s">
+      <c r="D15" s="15" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D16" s="15" t="s">
         <v>23</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="99.75" x14ac:dyDescent="0.2">
       <c r="A17" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B17" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="D17" s="15" t="s">
-        <v>28</v>
+      <c r="D17" s="14" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A18" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="C18" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="C18" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="D18" s="15"/>
+      <c r="D18" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="3">
